--- a/mbs-perturbation/mega/elm/ELM_tanh_results.xlsx
+++ b/mbs-perturbation/mega/elm/ELM_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.7934272300469484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4887152777777778</v>
+        <v>0.755061559507524</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7981220657276995</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5966151223669791</v>
+        <v>0.623187414500684</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7381974248927039</v>
+        <v>0.8160377358490566</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7238848646587875</v>
+        <v>0.7767155578837088</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7982832618025751</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.599627993489886</v>
+        <v>0.4489312770562771</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7982832618025751</v>
+        <v>0.8066037735849056</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6914089746570564</v>
+        <v>0.4863785479960063</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7960126187594</v>
+        <v>0.8013287270794578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="D7" t="n">
-        <v>0.048</v>
+        <v>0.1060240963855422</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6200504465900973</v>
+        <v>0.6180548713888401</v>
       </c>
     </row>
   </sheetData>
